--- a/Entregaveis/Entrega_1_RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Exames/Modelo lógico ExamesIPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOInterop\git\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Exames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069339AC-E41A-4ED0-83DB-56AF32D9E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD062AF-8BB6-4F2A-9B75-DBD1692E0638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="171">
   <si>
     <t>Mapeamento semântico</t>
   </si>
@@ -122,9 +122,6 @@
     <t>http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoObservacao-1.0</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRResultadoQualitativoExame-1.0</t>
-  </si>
-  <si>
     <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRCategoriaExame-1.0</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>http://hl7.org/fhir/R4/valueset-observation-category.html</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/R4/valueset-observation-interpretation.html</t>
-  </si>
-  <si>
     <t>component</t>
   </si>
   <si>
@@ -522,13 +516,33 @@
   </si>
   <si>
     <t>http://www.saude.gov.br/fhir/r4/CodeSystem/BRTipoResultadoRSCUL</t>
+  </si>
+  <si>
+    <t>ConceptMap/observation-interpretation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-laboratory-observations-uv-ips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://hl7.org/fhir/uv/ips/ValueSet/results-presence-absence-snomed-ct-ips-free-set</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/R4/valueset-observation-interpretation.html
+http://hl7.org/fhir/uv/ips/ValueSet/results-presence-absence-snomed-ct-ips-free-set</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BRTerminologiaPatogeno</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-microorganism-snomed-ct-ips-free-set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,12 +573,6 @@
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -677,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -744,15 +752,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4A86E8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF4A86E8"/>
       </right>
@@ -813,12 +812,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4A86E8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -836,40 +859,74 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1279,8 +1336,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1346,7 @@
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1353,373 +1410,389 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:9" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34" t="b">
+      <c r="F4" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="G4" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="16" t="b">
+      <c r="B5" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="34" t="b">
+      <c r="F5" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B7" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="D7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="34" t="b">
+      <c r="F7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="b">
+      <c r="F18" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{C4B8174E-8684-47FF-8395-5D6FDBC72B11}"/>
+    <hyperlink ref="G12" r:id="rId2" display="http://hl7.org/fhir/uv/ips/ValueSet/results-blood-group-snomed-ct-ips-free-set_x000a_" xr:uid="{08FA11BA-80B0-4601-AFFA-C94E4C1162BE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9E7BC733-FCE4-455A-A91B-4230A9C73853}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{7B446009-9822-4906-AC34-7FBDB4FEEED4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1727,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2872BAB1-6C0A-4AE7-AD64-E6A928ADADE2}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1743,1029 +1816,1029 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="E15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="E16" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="D24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="E24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="E25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="E27" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="E28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="E30" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F30" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="31" t="s">
+      <c r="G30" s="21"/>
+      <c r="H30" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F31" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="31" t="s">
+      <c r="G31" s="21"/>
+      <c r="H31" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F32" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="31" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F33" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="31" t="s">
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F34" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="31" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F35" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="31" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F36" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="31" t="s">
+      <c r="G36" s="21"/>
+      <c r="H36" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F37" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="31" t="s">
+      <c r="F38" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="31" t="s">
+      <c r="G38" s="21"/>
+      <c r="H38" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F39" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="31" t="s">
+      <c r="G39" s="21"/>
+      <c r="H39" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F40" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="31" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F41" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="31" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F42" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="31" t="s">
+      <c r="G42" s="21"/>
+      <c r="H42" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F43" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="31" t="s">
+      <c r="G43" s="21"/>
+      <c r="H43" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F44" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="31" t="s">
+      <c r="F45" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="31" t="s">
+      <c r="G45" s="21"/>
+      <c r="H45" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F46" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="31" t="s">
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F47" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="31" t="s">
+      <c r="F48" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="31" t="s">
+      <c r="G48" s="21"/>
+      <c r="H48" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F49" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="31" t="s">
+      <c r="G49" s="21"/>
+      <c r="H49" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F50" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32" t="s">
-        <v>158</v>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
